--- a/data/IMACLIM_equivalent/MTOC_equivalent.xlsx
+++ b/data/IMACLIM_equivalent/MTOC_equivalent.xlsx
@@ -567,7 +567,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1455,7 +1465,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:N13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1468,8 +1478,8 @@
   <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5194,6 +5204,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:M88">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
